--- a/seg_list.xlsx
+++ b/seg_list.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="136">
   <si>
     <t xml:space="preserve">MRI/Patient ID</t>
   </si>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">Brianne Geiger</t>
   </si>
   <si>
-    <t xml:space="preserve">FIXED                    000198_2023-04-10_ARFIpatient2</t>
+    <t xml:space="preserve">FIXED 000198_2023-04-10_ARFIpatient2</t>
   </si>
   <si>
     <t xml:space="preserve">https://byu.box.com/s/kuirmz7e724l40b122y8fmaq80t9asv7</t>
@@ -348,9 +348,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://byu.box.com/s/7ib6uef35pcxzp829ri7go9zzffm3gxq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160 original, 320 in segmentation</t>
   </si>
   <si>
     <t xml:space="preserve">https://byu.box.com/s/wnn04untnwfotfth2y12hs0aurhmfx9t</t>
@@ -534,7 +531,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -561,10 +558,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -666,10 +659,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="C2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="31.29"/>
@@ -1002,10 +995,10 @@
       <c r="R7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="60.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1062,10 +1055,10 @@
       <c r="E9" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="9" t="n">
+      <c r="G9" s="8" t="n">
         <v>6</v>
       </c>
       <c r="H9" s="1" t="n">
@@ -1167,35 +1160,35 @@
       <c r="B12" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>108</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="K12" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="L12" s="0" t="s">
         <v>112</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1389,7 +1382,7 @@
       <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.28"/>
@@ -1400,161 +1393,161 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>117</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>122</v>
-      </c>
       <c r="D3" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>126</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>129</v>
-      </c>
       <c r="C7" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>134</v>
-      </c>
       <c r="D11" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>135</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
